--- a/www/terminologies/CodeSystem-service-type.xlsx
+++ b/www/terminologies/CodeSystem-service-type.xlsx
@@ -111,7 +111,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/service-type</t>
+    <t>http://terminology.hl7.org/ValueSet/service-type|1.0.1</t>
   </si>
   <si>
     <t>Hierarchy</t>
